--- a/data/trans_dic/P69$dolorCabeza-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4437593305752692</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2857495149919097</v>
+        <v>0.2857495149919096</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.257694181426344</v>
@@ -697,7 +697,7 @@
         <v>0.2671558368287067</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1937886351676772</v>
+        <v>0.1937886351676771</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1890525007295658</v>
+        <v>0.1840309024464586</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08644691927409905</v>
+        <v>0.08667551970804736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1166109310383849</v>
+        <v>0.1069298136952797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0330888351273335</v>
+        <v>0.03365440281977148</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1125768219291313</v>
+        <v>0.1118744854901432</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1568395171436338</v>
+        <v>0.1621545910208712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2214728915399448</v>
+        <v>0.2205400579941265</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1505274667325482</v>
+        <v>0.1348929400419581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1925315037209811</v>
+        <v>0.1906813607263727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1445792298383367</v>
+        <v>0.1355723724617552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1785198293563955</v>
+        <v>0.1677755446575341</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1126781634081495</v>
+        <v>0.1030011687004311</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.35644116297798</v>
+        <v>0.3683250513711673</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2919425934862074</v>
+        <v>0.283040535466434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3482848784887428</v>
+        <v>0.3343132870661777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3104879856413348</v>
+        <v>0.3418161121260721</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3990733071559452</v>
+        <v>0.3944060966047306</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4441589716307817</v>
+        <v>0.4596437703793116</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6749104609576224</v>
+        <v>0.6898279147837652</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4740746832414051</v>
+        <v>0.4608668968614744</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3415952797916447</v>
+        <v>0.3427098615885362</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.318836103672192</v>
+        <v>0.3007164653732376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3936294473515443</v>
+        <v>0.3812214107535831</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3213699759943248</v>
+        <v>0.3128495696920585</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2422053540513894</v>
+        <v>0.240222628039543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2317439889781337</v>
+        <v>0.2296423704637201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2062609448245195</v>
+        <v>0.208290601833147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1717949072900196</v>
+        <v>0.172236092319238</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3924060944832028</v>
+        <v>0.3924599662318765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3381191133549821</v>
+        <v>0.3285142079099896</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3554671694279449</v>
+        <v>0.3519930534059064</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2552887275005923</v>
+        <v>0.2530427156511176</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3010484013635677</v>
+        <v>0.3035157869685273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2864905127996951</v>
+        <v>0.2835234601469942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2753968943964413</v>
+        <v>0.2785098597134291</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2205228789771109</v>
+        <v>0.2205115591753272</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3618936708738918</v>
+        <v>0.3518786035132518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3544527758704404</v>
+        <v>0.3560398151798599</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3263590425868509</v>
+        <v>0.3223483804049507</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2855558055895951</v>
+        <v>0.2833758802887184</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5769545045176129</v>
+        <v>0.5755746201315107</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5179930375753954</v>
+        <v>0.5138085423955355</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5256452680930019</v>
+        <v>0.5222888164643675</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3627116165027313</v>
+        <v>0.3638940226848941</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.400270840314384</v>
+        <v>0.4004352707334696</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3957999504903805</v>
+        <v>0.3914621940431681</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3738081469904387</v>
+        <v>0.371745134242741</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3000371325853184</v>
+        <v>0.3018627515160089</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3473014404243802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4214706656668545</v>
+        <v>0.4214706656668546</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3891489670174335</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2490196922582877</v>
+        <v>0.2599160590584071</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1383396053396037</v>
+        <v>0.1266619634628884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2178950105699375</v>
+        <v>0.2299181995400358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2890942512892323</v>
+        <v>0.2899229362293696</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2560089974411049</v>
+        <v>0.2566605293201405</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3033982123750575</v>
+        <v>0.311154917274002</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2445664507032479</v>
+        <v>0.2487844588944308</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3203782563893909</v>
+        <v>0.3229796492376534</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2958749498565608</v>
+        <v>0.2935203141435192</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2594238088646958</v>
+        <v>0.2549530737840103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2777078782903045</v>
+        <v>0.2769133309062306</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3381031737911144</v>
+        <v>0.3406898172854264</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4791570718359867</v>
+        <v>0.4879930791056858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4022415508781278</v>
+        <v>0.3863713905360162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4883616966194239</v>
+        <v>0.4806359532187218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5693234671805615</v>
+        <v>0.571027226353225</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5125289376768494</v>
+        <v>0.5082376088372851</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6319078439755178</v>
+        <v>0.6344578117454255</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4886225527289167</v>
+        <v>0.4833098060899496</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4995805804735404</v>
+        <v>0.5001281967581387</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4574812244167818</v>
+        <v>0.4602193840414762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4560065623667856</v>
+        <v>0.462799337119407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4446806430034355</v>
+        <v>0.4565706460655611</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5015367996811212</v>
+        <v>0.500578451156463</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2108661744055256</v>
+        <v>0.2125500491886914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2189852522885784</v>
+        <v>0.2218736777271278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2041048869027986</v>
+        <v>0.2087258555579456</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2947542493384668</v>
+        <v>0.2912302793495826</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2806218501459821</v>
+        <v>0.2765770235042572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2867412150779481</v>
+        <v>0.2812529377456128</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2586148513384472</v>
+        <v>0.2594678679425919</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3101164540940251</v>
+        <v>0.3154770658136126</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3228884399713669</v>
+        <v>0.3240228490803914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3121681515944278</v>
+        <v>0.3105064900445888</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3820703518243594</v>
+        <v>0.3808495697268682</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3631940267214583</v>
+        <v>0.3657515175274739</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3680387518424736</v>
+        <v>0.3641860224045746</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.332048581374984</v>
+        <v>0.3312497440864883</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20883</v>
+        <v>20329</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4899</v>
+        <v>4912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6481</v>
+        <v>5943</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4229</v>
+        <v>4203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5950</v>
+        <v>6151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3992</v>
+        <v>3975</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3514</v>
+        <v>3149</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28501</v>
+        <v>28227</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13679</v>
+        <v>12827</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13140</v>
+        <v>12349</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6633</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39374</v>
+        <v>40687</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16546</v>
+        <v>16042</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19358</v>
+        <v>18581</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11028</v>
+        <v>12141</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14992</v>
+        <v>14817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16849</v>
+        <v>17437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12165</v>
+        <v>12433</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11068</v>
+        <v>10759</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50567</v>
+        <v>50732</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30165</v>
+        <v>28451</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28973</v>
+        <v>28060</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18917</v>
+        <v>18416</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69500</v>
+        <v>68931</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51360</v>
+        <v>50894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47118</v>
+        <v>47581</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45979</v>
+        <v>46097</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46528</v>
+        <v>46534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44151</v>
+        <v>42897</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>44279</v>
+        <v>43846</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56025</v>
+        <v>55532</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>122080</v>
+        <v>123080</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>100903</v>
+        <v>99858</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>97216</v>
+        <v>98315</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>107416</v>
+        <v>107410</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103844</v>
+        <v>100970</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>78555</v>
+        <v>78907</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74552</v>
+        <v>73636</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>76426</v>
+        <v>75843</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68410</v>
+        <v>68246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>67639</v>
+        <v>67093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>65477</v>
+        <v>65059</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79599</v>
+        <v>79859</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>162316</v>
+        <v>162383</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139402</v>
+        <v>137874</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>131955</v>
+        <v>131227</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>146147</v>
+        <v>147036</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18446</v>
+        <v>19253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6376</v>
+        <v>5838</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13639</v>
+        <v>14391</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22228</v>
+        <v>22292</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16380</v>
+        <v>16422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14054</v>
+        <v>14413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18027</v>
+        <v>18337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31711</v>
+        <v>31968</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40848</v>
+        <v>40523</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23973</v>
+        <v>23560</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37852</v>
+        <v>37744</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>59462</v>
+        <v>59917</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35494</v>
+        <v>36148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18539</v>
+        <v>17807</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30569</v>
+        <v>30085</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43775</v>
+        <v>43906</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32793</v>
+        <v>32519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29271</v>
+        <v>29389</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36015</v>
+        <v>35624</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49448</v>
+        <v>49502</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63159</v>
+        <v>63537</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42140</v>
+        <v>42767</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60611</v>
+        <v>62231</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88205</v>
+        <v>88036</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68402</v>
+        <v>68949</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>75903</v>
+        <v>76904</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77570</v>
+        <v>79326</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100741</v>
+        <v>99537</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>151318</v>
+        <v>149137</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>161409</v>
+        <v>158320</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>186676</v>
+        <v>187291</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100598</v>
+        <v>102337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>111917</v>
+        <v>112310</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>118639</v>
+        <v>118007</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>130584</v>
+        <v>130167</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>195843</v>
+        <v>197222</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>207172</v>
+        <v>205004</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>239682</v>
+        <v>239106</v>
       </c>
     </row>
     <row r="20">
